--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7171_DTColumnParamsWithSimplifiedSyntax.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7171_DTColumnParamsWithSimplifiedSyntax.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-7689_ConditionParameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364CC57-51AF-437F-96F8-8AF2F13F08C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496EA089-CA07-4BB5-939F-BBF1A0744C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2745" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="7" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>C1</t>
   </si>
@@ -584,9 +584,6 @@
     <t>$C1.x1 == x5 || x1 == x5 || $C2.x2 == x5 || x2 == x5 || $C3.x3 == x5 || x3 == x5 || $A1.x4 == x5 || x4 == x5 ? 0 : 0</t>
   </si>
   <si>
-    <t>String x5</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Rules Double </t>
     </r>
@@ -769,12 +766,6 @@
     <t>Test Table6 Table6Test</t>
   </si>
   <si>
-    <t>x5 == "0"</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Double x5</t>
   </si>
 </sst>
@@ -782,7 +773,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -846,7 +836,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1257,15 +1247,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C0DC64-11BA-4F10-8EC3-B7EB2A03B20A}">
   <dimension ref="A2:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1323,7 +1313,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1594,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -1662,7 +1652,7 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1687,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1701,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1740,7 +1730,7 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1753,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1764,13 +1754,13 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1829,7 +1819,7 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1850,15 +1840,15 @@
         <v>3</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>15</v>
@@ -1933,7 +1923,7 @@
     </row>
     <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -1953,7 +1943,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>3</v>
@@ -1969,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G70" s="8"/>
     </row>
@@ -2008,7 +1998,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2018,21 +2008,21 @@
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
@@ -2046,7 +2036,7 @@
     </row>
     <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2067,7 +2057,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>3</v>
@@ -2086,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -2119,7 +2109,7 @@
     </row>
     <row r="94" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -2137,7 +2127,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2148,7 +2138,7 @@
         <v>15</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -2175,7 +2165,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2185,21 +2175,21 @@
         <v>3</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
